--- a/SFE_Project_Pre_Release/src/test/resources/ExcelData/Data.xlsx
+++ b/SFE_Project_Pre_Release/src/test/resources/ExcelData/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\SFE_Project_Pre_Release\src\test\resources\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\git\PreRelease\SFE_Project_Pre_Release\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A48F77-8C15-436D-A303-9C95A744CD76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA29E1B5-4113-4321-8099-8FBDB533727E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="992" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="992" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Facebook" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="PayPalPayment" sheetId="27" r:id="rId12"/>
     <sheet name="loginpage" sheetId="28" r:id="rId13"/>
     <sheet name="lpa" sheetId="29" r:id="rId14"/>
+    <sheet name="a" sheetId="30" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -1157,6 +1158,20 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9ABF72-AEC6-413E-8DE9-8FFEF2B2CC6C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854FB5F2-6938-492E-A230-E92C616832CF}">
   <dimension ref="A1:B2"/>
@@ -1397,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA4ECF9-E852-40A7-8B91-FA71AB59373E}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
